--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
     <sheet name="运行时配置信息" sheetId="5" r:id="rId2"/>
     <sheet name="扩展参数定义" sheetId="2" r:id="rId3"/>
     <sheet name="EngineCore可注册事件定义" sheetId="3" r:id="rId4"/>
-    <sheet name="消息额外参数说明" sheetId="4" r:id="rId5"/>
+    <sheet name="消息参数说明" sheetId="4" r:id="rId5"/>
+    <sheet name="运行时对象" sheetId="6" r:id="rId6"/>
+    <sheet name="SequenceStep类型定义" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="339">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,218 +692,565 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HostAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineQueueFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimePlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的运行平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认库的路径位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET库的安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeartBeat</t>
+  </si>
+  <si>
+    <t>RuntimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的运行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstanceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前运行实例的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话名称，等于SequenceGroup的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前运行实例的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessengerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetLibDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformLibDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstanceLibDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.Net平台库路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台库路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例库路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestInstanceStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestInstanceOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试实例结束事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试实例开始事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param.FailedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSetup[option]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunTearDown[option]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSequence[option]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunAll[option]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.TestGenerationAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITestGenerationInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISessionGenerationInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISequenceTestResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IList&lt;ITestResultCollection&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDebuggerHandle;IDebugInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormatterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetLibDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testflow平台根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformLibDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前运行实例的哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataMaintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformEncoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前实例使用库的路径，多个时使用分号分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestGenReportInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestRunReportInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineQueueFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineSyncMessenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageReceiveTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusUploadInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestGenTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbortTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessengerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileEncoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET的运行版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnablePerformanceMonitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能运行时性能监视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时对象名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点的调用堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteBreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPointHitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepInto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunToEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走进子step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略断点执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求变量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回请求的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>BreakPoints里放所有添加的断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoints里放所有删除的断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoints里放当前命中的断点，只有一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData.Names里放对应的请求变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData里放完整的Names和Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshWatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新watch列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新列表返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始和未开始都可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始后执行返回值，则值都是N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时对象更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeObjectUpdated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegage.RuntimeObjUpdatedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试监视数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待监视的变量表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时即时计算的表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequenceIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否涉及Slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否涉及Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>infoName:extraParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HostAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EngineQueueFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimePlatform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前的运行平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认库的路径位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET库的安装位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeartBeat</t>
-  </si>
-  <si>
-    <t>RuntimeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前的运行方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstanceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前运行实例的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SessionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话名称，等于SequenceGroup的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前运行实例的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessengerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息队列的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetLibDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlatformLibDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstanceLibDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.Net平台库路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台库路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例库路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestInstanceStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestInstanceOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试实例结束事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试实例开始事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param.FailedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSetup[option]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunTearDown[option]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSequence[option]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunAll[option]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegate.TestGenerationAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITestGenerationInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISessionGenerationInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISequenceTestResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IList&lt;ITestResultCollection&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDebuggerHandle;IDebugInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormatterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetLibDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testflow平台根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlatformLibDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeHash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前运行实例的哈希</t>
+    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeHash:无参数。返回当前TestInstance的运行时Hash。string类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkspaceDir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -909,123 +1258,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataMaintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DatabaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlatformEncoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前实例使用库的路径，多个时使用分号分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestGenReportInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestRunReportInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EngineQueueFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EngineSyncMessenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageReceiveTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusUploadInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectionTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SyncTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StopTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestGenTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbortTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessengerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileEncoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET的运行版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkspaceDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName</t>
+    <t>TestName:无参数。返回当前运行实例的名称。string类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceStep类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TryFinallyBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiThreadBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimerBlock</t>
+  </si>
+  <si>
+    <t>BatchBlock</t>
+  </si>
+  <si>
+    <t>实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function为指定的函数，且不包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function为指定的函数，包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空且不能配置，连带在下面创建两个空的Step，包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps依次为每个分支，每个分支的Function里包含返回值为bool的函数。相邻的分支为Else if 关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1033,15 +1324,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnablePerformanceMonitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能运行时性能监视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
+    <t>ConditionLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionStatement</t>
+  </si>
+  <si>
+    <t>SubSteps不能为ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps都是ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为null，且只有两个SubStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，SubSteps为null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,9 +1399,58 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1085,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,25 +1484,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,6 +1536,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,44 +1951,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
         <v>75</v>
@@ -1583,7 +1997,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1592,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -1601,18 +2015,18 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
@@ -1621,7 +2035,7 @@
         <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
         <v>112</v>
@@ -1630,7 +2044,7 @@
         <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
@@ -1639,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -1650,28 +2064,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -1679,25 +2093,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K5" t="s">
         <v>40</v>
@@ -1708,16 +2122,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s">
         <v>50</v>
@@ -1728,16 +2142,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>253</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
@@ -1748,16 +2162,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
         <v>50</v>
@@ -1768,7 +2182,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -1779,7 +2193,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -1790,7 +2204,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
@@ -1801,7 +2215,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K12" t="s">
         <v>85</v>
@@ -1812,7 +2226,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -1823,29 +2237,29 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -1856,21 +2270,21 @@
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
@@ -1878,13 +2292,13 @@
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L19" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2320,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1940,7 +2354,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -1951,7 +2365,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1973,7 +2387,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -2028,79 +2442,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
         <v>184</v>
-      </c>
-      <c r="C14" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
         <v>192</v>
       </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
         <v>195</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2115,15 +2529,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="93.625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -2135,7 +2549,7 @@
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2146,16 +2560,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2163,18 +2577,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2185,9 +2599,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +2616,7 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2213,7 +2627,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2224,7 +2638,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="17"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
@@ -2233,46 +2647,54 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
+      <c r="D9" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="17"/>
-      <c r="D10" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>170</v>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D11" s="12"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D12" s="12"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="12"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D14" s="12"/>
+      <c r="D14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2306,7 +2728,7 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2318,10 +2740,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2335,7 +2757,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2349,7 +2771,7 @@
         <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2377,15 +2799,15 @@
         <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
         <v>199</v>
-      </c>
-      <c r="B7" t="s">
-        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>145</v>
@@ -2419,7 +2841,7 @@
         <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2466,16 +2888,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
         <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -2489,7 +2911,18 @@
         <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2501,372 +2934,532 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="32.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="7" customWidth="1"/>
-    <col min="13" max="19" width="9" style="7"/>
+    <col min="1" max="2" width="14.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="26" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="26.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="7" customWidth="1"/>
+    <col min="20" max="20" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+    </row>
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="M2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="7" t="b">
+      <c r="H3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9" t="s">
+      <c r="M3" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="7" t="b">
+      <c r="E4" s="26"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="26"/>
+      <c r="K4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="7" t="b">
+      <c r="H5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9" t="s">
+      <c r="M5" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="N5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="30"/>
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="7" t="b">
+      <c r="E6" s="26"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="26"/>
+      <c r="K6" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="M7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="N7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="N8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="E10" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="N11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E13" s="26"/>
+      <c r="F13" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="E10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="G13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E14" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E13" s="16"/>
-      <c r="F13" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E14" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E16" s="16"/>
+      <c r="M14" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E17" s="16"/>
+      <c r="E17" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -2885,4 +3478,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="消息参数说明" sheetId="4" r:id="rId5"/>
     <sheet name="运行时对象" sheetId="6" r:id="rId6"/>
     <sheet name="SequenceStep类型定义" sheetId="7" r:id="rId7"/>
+    <sheet name="内置变量定义" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="347">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1368,6 +1369,38 @@
   </si>
   <si>
     <t>Function为指定函数，SubSteps为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullTrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Step执行结束后的返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,10 +1573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2964,32 +2997,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="29"/>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
@@ -3453,13 +3486,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3473,6 +3499,13 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3592,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3746,4 +3779,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="354">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,6 +1417,18 @@
   </si>
   <si>
     <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点等小数类型转换为字符串的格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,10 +1604,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1979,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J20" sqref="J20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2353,6 +2365,17 @@
         <v>242</v>
       </c>
     </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J20" t="s">
+        <v>351</v>
+      </c>
+      <c r="K20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="G1:I1"/>
@@ -2369,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2569,6 +2592,17 @@
         <v>188</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2580,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3043,32 +3077,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="30"/>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
@@ -3548,14 +3582,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3569,6 +3595,14 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44010A7-568C-43E5-91A1-99A794F84846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="357">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1429,13 +1430,25 @@
   </si>
   <si>
     <t>浮点等小数类型转换为字符串的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetRootDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET核心库根目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1604,10 +1617,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1625,74 +1638,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1705,14 +1650,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1780,6 +1725,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1815,6 +1777,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1990,11 +1969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2245,6 +2224,15 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" t="s">
+        <v>356</v>
+      </c>
       <c r="J9" t="s">
         <v>227</v>
       </c>
@@ -2391,11 +2379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2603,6 +2591,17 @@
         <v>353</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2611,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2816,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3046,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3077,32 +3076,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="30"/>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
@@ -3582,6 +3581,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3595,14 +3602,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3611,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3719,7 +3718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3879,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44010A7-568C-43E5-91A1-99A794F84846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -1448,7 +1447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1638,6 +1637,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1650,14 +1717,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1725,23 +1792,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1777,23 +1827,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1969,11 +2002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2379,10 +2412,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -2610,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3045,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3610,7 +3643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3718,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3878,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF5C0F-66D0-437A-B5A3-5BEC9FFC6EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="360">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1441,13 +1442,25 @@
   </si>
   <si>
     <t>.NET核心库根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbortTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止超时时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1616,10 +1629,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1637,74 +1650,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1717,14 +1662,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1792,6 +1737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1827,6 +1789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2002,31 +1981,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:M21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="11" width="24.25" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="22.375" customWidth="1"/>
-    <col min="15" max="15" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>129</v>
       </c>
@@ -2053,7 +2032,7 @@
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -2100,7 +2079,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -2138,7 +2117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -2167,7 +2146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -2196,7 +2175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>297</v>
       </c>
@@ -2216,7 +2195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>315</v>
       </c>
@@ -2236,7 +2215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>235</v>
       </c>
@@ -2256,7 +2235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>354</v>
       </c>
@@ -2276,7 +2255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>228</v>
       </c>
@@ -2287,7 +2266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>229</v>
       </c>
@@ -2298,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>230</v>
       </c>
@@ -2309,7 +2288,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>231</v>
       </c>
@@ -2320,7 +2299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>232</v>
       </c>
@@ -2331,7 +2310,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>298</v>
       </c>
@@ -2342,7 +2321,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>213</v>
       </c>
@@ -2353,7 +2332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>210</v>
       </c>
@@ -2364,7 +2343,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>170</v>
       </c>
@@ -2375,7 +2354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>241</v>
       </c>
@@ -2386,7 +2365,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>351</v>
       </c>
@@ -2412,21 +2391,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2437,7 +2416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2448,7 +2427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -2459,7 +2438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -2470,7 +2449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2481,7 +2460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -2492,7 +2471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2503,7 +2482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2514,7 +2493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +2504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2536,7 +2515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -2547,7 +2526,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2558,7 +2537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -2569,7 +2548,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -2580,7 +2559,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -2591,7 +2570,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>183</v>
       </c>
@@ -2602,7 +2581,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -2613,7 +2592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>351</v>
       </c>
@@ -2624,7 +2603,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>354</v>
       </c>
@@ -2633,6 +2612,17 @@
       </c>
       <c r="C19" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2643,24 +2633,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="93.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -2694,7 +2684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
@@ -2703,7 +2693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="26" t="s">
@@ -2716,7 +2706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -2727,7 +2717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2734,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="s">
@@ -2757,7 +2747,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -2766,7 +2756,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -2775,7 +2765,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -2788,7 +2778,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -2797,7 +2787,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -2806,7 +2796,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -2815,14 +2805,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="D14" s="24"/>
       <c r="E14" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="D15" s="24"/>
     </row>
@@ -2848,22 +2838,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="80.625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -2891,7 +2881,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -2905,7 +2895,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
@@ -2919,7 +2909,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -2933,7 +2923,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
@@ -2947,7 +2937,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>189</v>
       </c>
@@ -2961,7 +2951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>131</v>
       </c>
@@ -2975,7 +2965,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
@@ -2989,7 +2979,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -3003,7 +2993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>133</v>
       </c>
@@ -3017,7 +3007,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
@@ -3031,7 +3021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>190</v>
       </c>
@@ -3045,7 +3035,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>345</v>
       </c>
@@ -3059,7 +3049,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>347</v>
       </c>
@@ -3078,67 +3068,67 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="18" customWidth="1"/>
+    <col min="1" max="2" width="14.77734375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="26" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="32.25" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="16" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32.21875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="7" customWidth="1"/>
     <col min="14" max="14" width="14" style="12" customWidth="1"/>
-    <col min="15" max="15" width="29.5" style="12" customWidth="1"/>
-    <col min="16" max="16" width="43.625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="19.875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="7" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="43.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" style="7" customWidth="1"/>
     <col min="20" max="20" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="30"/>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -3192,7 +3182,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -3242,7 +3232,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="15" t="s">
         <v>44</v>
@@ -3280,7 +3270,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>105</v>
       </c>
@@ -3327,7 +3317,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
@@ -3365,7 +3355,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
@@ -3406,7 +3396,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>193</v>
       </c>
@@ -3436,7 +3426,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="E9" s="27"/>
       <c r="F9" s="15" t="s">
@@ -3458,7 +3448,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="E10" s="27" t="s">
         <v>103</v>
@@ -3485,7 +3475,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="E11" s="27"/>
       <c r="F11" s="15" t="s">
@@ -3510,7 +3500,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="E12" s="27"/>
       <c r="F12" s="15" t="s">
@@ -3538,7 +3528,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E13" s="27"/>
       <c r="F13" s="15" t="s">
         <v>196</v>
@@ -3560,7 +3550,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E14" s="27" t="s">
         <v>198</v>
       </c>
@@ -3577,7 +3567,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="12" t="b">
@@ -3590,7 +3580,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E16" s="27"/>
       <c r="M16" s="27" t="s">
         <v>337</v>
@@ -3602,7 +3592,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="22" t="b">
@@ -3614,14 +3604,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3635,6 +3617,14 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,23 +3633,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>244</v>
       </c>
@@ -3683,7 +3673,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -3700,7 +3690,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>284</v>
       </c>
@@ -3720,7 +3710,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>290</v>
       </c>
@@ -3751,22 +3741,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -3780,7 +3770,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3791,7 +3781,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3805,7 +3795,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -3819,7 +3809,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -3833,7 +3823,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -3847,7 +3837,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>304</v>
       </c>
@@ -3861,7 +3851,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>305</v>
       </c>
@@ -3875,7 +3865,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -3889,7 +3879,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -3911,21 +3901,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="66.875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="66.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>328</v>
       </c>
@@ -3939,7 +3929,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>

--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF5C0F-66D0-437A-B5A3-5BEC9FFC6EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="367">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1278,189 +1277,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ConditionLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionStatement</t>
+  </si>
+  <si>
+    <t>SubSteps不能为ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps都是ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为null，且只有两个SubStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，SubSteps为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullTrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Step执行结束后的返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始和未开始都可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停成功后返回状态及WatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddRuntimeObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectType:param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugHandle：无参数。返回当前运行实例的调试句柄。IDebuggerHandle类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPointHitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.BreakPointHittedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeObjectUpdated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoint：额外参数；0.断点所在的CallStack(ICallStack类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation:额外参数；0.对应的SequenceId(int),1.对应的表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点等小数类型转换为字符串的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetRootDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET核心库根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbortTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TestflowHome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConditionLoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionStatement</t>
-  </si>
-  <si>
-    <t>SubSteps不能为ConditionStatement类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空，SubSteps都是ConditionStatement类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为null，且只有两个SubStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为指定函数，SubSteps为null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullTrace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个Step执行结束后的返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始和未开始都可以使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停成功后返回状态及WatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddRuntimeObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>objectType:param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebugHandle：无参数。返回当前运行实例的调试句柄。IDebuggerHandle类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPointHitted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegate.BreakPointHittedAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeObjectUpdated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoint：额外参数；0.断点所在的CallStack(ICallStack类型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation:额外参数；0.对应的SequenceId(int),1.对应的表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点等小数类型转换为字符串的格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetRootDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET核心库根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbortTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止超时时间</t>
+    <t>ExpressionOperators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionCalculators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, ExpressionOperatorInfo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式符号到符号信息的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionCalculatorInfo[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式计算类的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterCheck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1485,7 +1512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1542,11 +1569,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1644,12 +1720,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1662,14 +1818,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1737,23 +1893,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1789,23 +1928,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1981,403 +2103,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="11" width="24.21875" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="36" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="37" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="36" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="37" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="38" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="36" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="37" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="38" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="36" customWidth="1"/>
+    <col min="14" max="14" width="22.375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="38" customWidth="1"/>
+    <col min="16" max="16" width="22.75" style="36" customWidth="1"/>
+    <col min="17" max="17" width="22.375" style="37" customWidth="1"/>
+    <col min="18" max="18" width="25.75" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="38" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P2" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P3" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="J4" t="s">
+      <c r="G4" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G5" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D6" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D7" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D8" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D9" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="F9" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J10" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J11" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J12" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J13" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J14" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J15" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J16" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J17" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J18" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J19" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
+    <row r="20" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J20" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="L20" t="s">
-        <v>353</v>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J21" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J22" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="D1:F1"/>
@@ -2391,21 +2582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2416,7 +2607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2427,7 +2618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -2438,7 +2629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -2449,7 +2640,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2460,7 +2651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -2471,7 +2662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2482,7 +2673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2493,7 +2684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2504,7 +2695,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +2706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -2526,7 +2717,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2537,7 +2728,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -2548,7 +2739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -2559,7 +2750,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -2570,7 +2761,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>183</v>
       </c>
@@ -2581,7 +2772,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -2592,37 +2783,37 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" t="s">
         <v>351</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>352</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>354</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>355</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>357</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>358</v>
-      </c>
-      <c r="C20" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2633,24 +2824,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="93.625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
@@ -2693,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="26" t="s">
@@ -2706,7 +2897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -2717,7 +2908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2734,38 +2925,38 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>341</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="24"/>
       <c r="E8" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="24"/>
       <c r="E9" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -2775,19 +2966,19 @@
         <v>295</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="24"/>
       <c r="E11" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -2796,7 +2987,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -2805,14 +2996,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="22"/>
       <c r="D14" s="24"/>
       <c r="E14" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="22"/>
       <c r="D15" s="24"/>
     </row>
@@ -2838,22 +3029,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2867,7 +3058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -2881,7 +3072,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -2895,7 +3086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
@@ -2909,7 +3100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -2923,7 +3114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
@@ -2937,7 +3128,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>189</v>
       </c>
@@ -2951,7 +3142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>131</v>
       </c>
@@ -2965,7 +3156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
@@ -2979,7 +3170,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -2993,7 +3184,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>133</v>
       </c>
@@ -3007,7 +3198,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
@@ -3021,7 +3212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>190</v>
       </c>
@@ -3035,23 +3226,23 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
         <v>281</v>
@@ -3068,37 +3259,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.77734375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="18" customWidth="1"/>
+    <col min="1" max="2" width="14.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="18" customWidth="1"/>
     <col min="6" max="6" width="26" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="7" customWidth="1"/>
     <col min="14" max="14" width="14" style="12" customWidth="1"/>
-    <col min="15" max="15" width="29.44140625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="29.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="43.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="7" customWidth="1"/>
     <col min="20" max="20" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
@@ -3128,7 +3319,7 @@
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -3182,7 +3373,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -3232,7 +3423,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="15" t="s">
         <v>44</v>
@@ -3270,7 +3461,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>105</v>
       </c>
@@ -3317,7 +3508,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
@@ -3355,7 +3546,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
@@ -3396,7 +3587,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>193</v>
       </c>
@@ -3426,7 +3617,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="E9" s="27"/>
       <c r="F9" s="15" t="s">
@@ -3448,7 +3639,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="E10" s="27" t="s">
         <v>103</v>
@@ -3475,7 +3666,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="E11" s="27"/>
       <c r="F11" s="15" t="s">
@@ -3500,7 +3691,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="E12" s="27"/>
       <c r="F12" s="15" t="s">
@@ -3528,7 +3719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E13" s="27"/>
       <c r="F13" s="15" t="s">
         <v>196</v>
@@ -3550,7 +3741,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E14" s="27" t="s">
         <v>198</v>
       </c>
@@ -3564,10 +3755,10 @@
         <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="12" t="b">
@@ -3580,26 +3771,26 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E16" s="27"/>
       <c r="M16" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N16" s="22" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="22" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3633,23 +3824,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="1" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>244</v>
       </c>
@@ -3673,7 +3864,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -3690,7 +3881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>284</v>
       </c>
@@ -3710,7 +3901,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>290</v>
       </c>
@@ -3741,22 +3932,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="51.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -3764,13 +3955,13 @@
         <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3778,10 +3969,10 @@
         <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3789,27 +3980,27 @@
         <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>309</v>
       </c>
       <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
         <v>322</v>
       </c>
-      <c r="D4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -3817,27 +4008,27 @@
         <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>304</v>
       </c>
@@ -3845,13 +4036,13 @@
         <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>305</v>
       </c>
@@ -3859,13 +4050,13 @@
         <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -3873,13 +4064,13 @@
         <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -3887,7 +4078,7 @@
         <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
         <v>312</v>
@@ -3901,46 +4092,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="66.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
         <v>328</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
         <v>329</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
         <v>333</v>
       </c>
-      <c r="D1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>334</v>
-      </c>
-      <c r="D2" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71F1EE-6A40-42AD-8DA1-FDA4AFDD2F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -587,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RuntimeDelegate.TestProjectStatusAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RuntimeDelegate.SessionStatusAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1481,13 +1478,17 @@
   </si>
   <si>
     <t>ParameterCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.TestInstanceStatusAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1690,7 +1691,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1705,10 +1715,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1720,92 +1730,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1818,14 +1751,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1893,6 +1826,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1928,6 +1878,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2103,467 +2070,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="36" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="37" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="38" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="36" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="37" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="38" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="36" customWidth="1"/>
-    <col min="14" max="14" width="22.375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="38" customWidth="1"/>
-    <col min="16" max="16" width="22.75" style="36" customWidth="1"/>
-    <col min="17" max="17" width="22.375" style="37" customWidth="1"/>
-    <col min="18" max="18" width="25.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="17" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="24" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="23" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="22.375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="25" customWidth="1"/>
+    <col min="16" max="16" width="22.75" style="23" customWidth="1"/>
+    <col min="17" max="17" width="22.375" style="24" customWidth="1"/>
+    <col min="18" max="18" width="25.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="N2" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D6" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D7" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D8" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D9" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J10" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J11" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J12" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J13" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J14" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="L14" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J15" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="36" t="s">
+      <c r="L15" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J16" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J17" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J18" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J19" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J20" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J21" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J22" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="R2" s="38" t="s">
+      <c r="K22" s="24" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q3" s="37" t="s">
+      <c r="L22" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D6" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D7" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D8" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D9" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J10" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J11" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J12" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J13" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J14" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J15" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J16" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J17" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J18" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J19" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J20" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J21" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J22" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2620,7 +2587,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2631,7 +2598,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -2653,7 +2620,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2708,112 +2675,112 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
         <v>170</v>
-      </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
         <v>176</v>
-      </c>
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" t="s">
         <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
         <v>184</v>
       </c>
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
         <v>350</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>351</v>
-      </c>
-      <c r="C18" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" t="s">
         <v>353</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>354</v>
-      </c>
-      <c r="C19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" t="s">
         <v>356</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>357</v>
-      </c>
-      <c r="C20" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,16 +2826,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2876,18 +2843,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2898,9 +2865,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2909,10 +2876,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2922,90 +2889,90 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="D10" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="24" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="4" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="22"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="22"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3029,11 +2996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3066,10 +3033,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
         <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3083,7 +3050,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3091,13 +3058,13 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3105,13 +3072,13 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3119,27 +3086,27 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3150,10 +3117,10 @@
         <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3164,10 +3131,10 @@
         <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3181,7 +3148,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -3192,10 +3159,10 @@
         <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3206,49 +3173,49 @@
         <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
         <v>190</v>
       </c>
-      <c r="B13" t="s">
-        <v>191</v>
-      </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
         <v>281</v>
-      </c>
-      <c r="C15" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3290,32 +3257,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
@@ -3357,16 +3324,16 @@
         <v>128</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -3374,7 +3341,7 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3386,13 +3353,13 @@
       <c r="D3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="37" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="15" t="b">
@@ -3401,7 +3368,7 @@
       <c r="I3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="32" t="s">
         <v>90</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -3410,21 +3377,21 @@
       <c r="L3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>253</v>
+      <c r="M3" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="N3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="24" t="s">
-        <v>261</v>
+      <c r="O3" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="15" t="s">
         <v>44</v>
       </c>
@@ -3434,35 +3401,35 @@
       <c r="D4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="15" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="15" t="s">
         <v>119</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="27"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="24"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3474,11 +3441,11 @@
       <c r="D5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="37" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="15" t="b">
@@ -3487,29 +3454,29 @@
       <c r="I5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="15" t="s">
         <v>120</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>254</v>
+      <c r="M5" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="N5" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>262</v>
+      <c r="O5" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
@@ -3519,35 +3486,35 @@
       <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="15" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="15" t="s">
         <v>121</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="27"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="24"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
@@ -3557,7 +3524,7 @@
       <c r="D7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="15" t="s">
         <v>95</v>
       </c>
@@ -3567,29 +3534,29 @@
       <c r="I7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>44</v>
@@ -3597,7 +3564,7 @@
       <c r="D8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="15" t="s">
         <v>99</v>
       </c>
@@ -3608,18 +3575,18 @@
         <v>100</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="15" t="s">
         <v>101</v>
       </c>
@@ -3630,171 +3597,179 @@
         <v>102</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="32" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>154</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="E12" s="27"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>259</v>
+        <v>155</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>258</v>
       </c>
       <c r="N12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E13" s="27"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="M13" s="32"/>
       <c r="N13" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E14" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="32" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E14" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>277</v>
       </c>
       <c r="N14" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E16" s="27"/>
-      <c r="M16" s="27" t="s">
-        <v>336</v>
+      <c r="E16" s="32"/>
+      <c r="M16" s="32" t="s">
+        <v>335</v>
       </c>
       <c r="N16" s="22" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="E17" s="32"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="22" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3808,14 +3783,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3824,7 +3791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3842,83 +3809,83 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
         <v>292</v>
       </c>
-      <c r="D1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="E1" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
         <v>249</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
         <v>284</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>285</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
         <v>286</v>
-      </c>
-      <c r="D3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
         <v>290</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>288</v>
-      </c>
-      <c r="C4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3949,139 +3916,139 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
         <v>321</v>
-      </c>
-      <c r="D4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" t="s">
         <v>315</v>
-      </c>
-      <c r="B6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4108,30 +4075,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" t="s">
         <v>327</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
         <v>328</v>
-      </c>
-      <c r="C1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
         <v>330</v>
       </c>
-      <c r="B2" t="s">
-        <v>331</v>
-      </c>
       <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
         <v>333</v>
-      </c>
-      <c r="D2" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
